--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -275,7 +275,7 @@
     <t>Cr</t>
   </si>
   <si>
-    <t>铬 </t>
+    <t>铬</t>
   </si>
   <si>
     <t>クロム</t>
@@ -727,12 +727,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,15 +755,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,37 +824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,55 +838,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +856,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,13 +898,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -927,175 +920,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,9 +1104,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,41 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1179,6 +1139,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,7 +1171,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,7 +1210,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,137 +1219,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,9 +1357,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1798,7 +1788,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1815,7 +1805,10 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1829,7 +1822,7 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1843,7 +1836,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1857,7 +1850,7 @@
       <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1874,7 +1867,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1902,7 +1895,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1916,7 +1909,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1930,6 +1923,9 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1944,7 +1940,10 @@
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1958,6 +1957,9 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1975,7 +1977,7 @@
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1989,7 +1991,7 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2003,7 +2005,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2031,7 +2033,7 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2045,7 +2047,7 @@
       <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2059,6 +2061,9 @@
       <c r="C21" s="1">
         <v>7</v>
       </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2128,6 +2133,9 @@
       <c r="C27" s="1">
         <v>12</v>
       </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2170,6 +2178,9 @@
       <c r="C30" s="1">
         <v>7</v>
       </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>101</v>
       </c>
@@ -2340,6 +2351,9 @@
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>145</v>
@@ -2695,7 +2709,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="5"/>
@@ -2750,6 +2764,9 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>219</v>
       </c>
@@ -2767,6 +2784,9 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>222</v>
       </c>
@@ -2778,6 +2798,9 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>224</v>
       </c>
@@ -2789,6 +2812,9 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>226</v>
       </c>
@@ -2802,6 +2828,9 @@
       </c>
       <c r="C6" s="1">
         <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>229</v>
@@ -2822,7 +2851,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -2871,6 +2900,9 @@
       </c>
       <c r="C2">
         <v>4</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>232</v>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -727,10 +727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -756,15 +756,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,18 +777,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,9 +799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +808,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,30 +853,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -885,8 +860,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,6 +882,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -908,43 +908,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,139 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,17 +1099,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,6 +1113,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,7 +1144,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1167,15 +1185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1190,15 +1199,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1207,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,7 +1219,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,124 +1228,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1709,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2131,7 +2131,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
     <sheet name="Hydrocarbon" sheetId="3" r:id="rId2"/>
-    <sheet name="Oxyde" sheetId="4" r:id="rId3"/>
+    <sheet name="Oxyde(-O)" sheetId="4" r:id="rId3"/>
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
     <sheet name="Others" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="245">
   <si>
     <t>Structural</t>
   </si>
@@ -713,6 +713,27 @@
     <t>酸化銅</t>
   </si>
   <si>
+    <t>MgO</t>
+  </si>
+  <si>
+    <t>P2O5</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>一氧化碳</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>二氧化碳</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
     <t>NaOH</t>
   </si>
   <si>
@@ -720,6 +741,18 @@
   </si>
   <si>
     <t>水酸化ナトリウム</t>
+  </si>
+  <si>
+    <t>Ca(OH)2</t>
+  </si>
+  <si>
+    <t>CaO2H2</t>
+  </si>
+  <si>
+    <t>H2CO3</t>
+  </si>
+  <si>
+    <t>碳酸</t>
   </si>
 </sst>
 </file>
@@ -728,8 +761,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -762,9 +795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,17 +810,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,10 +831,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,11 +847,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -846,6 +879,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -853,16 +894,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,22 +931,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -905,6 +938,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -914,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +977,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,85 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,49 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1132,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,15 +1155,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,11 +1174,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,7 +1193,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,6 +1205,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,21 +1232,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1207,145 +1240,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1709,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2706,13 +2739,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" style="1" customWidth="1"/>
@@ -2765,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>219</v>
@@ -2837,6 +2870,55 @@
       </c>
       <c r="G6" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2848,13 +2930,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
@@ -2896,7 +2978,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2905,10 +2987,24 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2920,13 +3016,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2961,6 +3057,14 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -789,21 +789,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,26 +816,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,6 +840,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -867,22 +860,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,6 +881,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -917,14 +925,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -941,13 +941,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +989,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1031,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,25 +1097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,97 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,15 +1132,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1174,36 +1165,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1232,6 +1197,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1240,10 +1240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,133 +1252,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1742,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2080,6 +2080,9 @@
       <c r="C20" s="1">
         <v>6</v>
       </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2119,6 +2122,9 @@
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>79</v>
       </c>
@@ -2130,6 +2136,9 @@
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2141,6 +2150,9 @@
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
@@ -2152,6 +2164,9 @@
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>88</v>
       </c>
@@ -2183,6 +2198,9 @@
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>95</v>
       </c>
@@ -2197,6 +2215,9 @@
       <c r="C29" s="1">
         <v>7</v>
       </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>98</v>
       </c>
@@ -2231,6 +2252,9 @@
       <c r="C31" s="1">
         <v>6</v>
       </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>105</v>
       </c>
@@ -2417,6 +2441,9 @@
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>153</v>
@@ -2741,8 +2768,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -789,14 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,16 +802,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +871,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -863,19 +886,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,10 +903,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,27 +925,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -938,6 +938,48 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -947,7 +989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,31 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +1079,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,109 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,6 +1132,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1167,18 +1176,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,6 +1196,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,17 +1232,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1240,10 +1240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,133 +1252,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1742,7 +1742,7 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -2768,8 +2768,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -2842,7 +2842,7 @@
         <v>221</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -2856,7 +2856,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -2870,7 +2870,7 @@
         <v>225</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -2887,7 +2887,7 @@
         <v>228</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
@@ -2904,7 +2904,7 @@
         <v>231</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -2915,7 +2915,7 @@
         <v>232</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="248">
   <si>
     <t>Structural</t>
   </si>
@@ -732,6 +732,15 @@
   </si>
   <si>
     <t>Al2O3</t>
+  </si>
+  <si>
+    <t>氧化铝</t>
+  </si>
+  <si>
+    <t>MnO2</t>
+  </si>
+  <si>
+    <t>氧化锰</t>
   </si>
   <si>
     <t>NaOH</t>
@@ -760,10 +769,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -788,6 +797,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -803,6 +828,51 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -810,15 +880,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,81 +903,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,8 +926,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,7 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +986,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,37 +1106,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,121 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,11 +1144,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1174,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1170,41 +1203,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,6 +1230,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1240,10 +1249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,133 +1261,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2766,10 +2775,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -2937,7 +2946,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
@@ -2946,6 +2955,23 @@
       </c>
       <c r="D11" s="1">
         <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2959,8 +2985,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3005,7 +3031,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3014,18 +3040,18 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3088,10 +3114,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="260">
   <si>
     <t>Structural</t>
   </si>
@@ -683,6 +683,12 @@
     <t>Water</t>
   </si>
   <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>过氧化氢</t>
+  </si>
+  <si>
     <t>FeO</t>
   </si>
   <si>
@@ -743,6 +749,18 @@
     <t>氧化锰</t>
   </si>
   <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>二氧化硫</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>三氧化硫</t>
+  </si>
+  <si>
     <t>NaOH</t>
   </si>
   <si>
@@ -762,6 +780,24 @@
   </si>
   <si>
     <t>碳酸</t>
+  </si>
+  <si>
+    <t>H2SO3</t>
+  </si>
+  <si>
+    <t>亚硫酸</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>硫酸</t>
+  </si>
+  <si>
+    <t>FeCO3</t>
+  </si>
+  <si>
+    <t>碳酸亚铁</t>
   </si>
 </sst>
 </file>
@@ -769,10 +805,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -799,7 +835,57 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,70 +899,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -896,16 +923,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,22 +971,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1028,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,43 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,37 +1130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,43 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,21 +1181,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1170,6 +1191,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,16 +1249,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,26 +1277,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1249,10 +1285,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,133 +1297,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,8 +1787,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1864,6 +1900,9 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,6 +1931,9 @@
       <c r="C7" s="1">
         <v>7</v>
       </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2120,6 +2162,12 @@
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>76</v>
       </c>
@@ -2131,6 +2179,9 @@
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
@@ -2145,6 +2196,9 @@
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
       <c r="D24" s="1">
         <v>100</v>
       </c>
@@ -2159,6 +2213,9 @@
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
       <c r="D25" s="1">
         <v>100</v>
       </c>
@@ -2173,6 +2230,9 @@
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
       <c r="D26" s="1">
         <v>100</v>
       </c>
@@ -2207,6 +2267,9 @@
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
       <c r="D28" s="1">
         <v>100</v>
       </c>
@@ -2275,6 +2338,12 @@
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>108</v>
       </c>
@@ -2286,6 +2355,12 @@
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>111</v>
       </c>
@@ -2332,6 +2407,12 @@
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2340,6 +2421,12 @@
       <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>125</v>
       </c>
@@ -2348,6 +2435,12 @@
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>100</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>127</v>
       </c>
@@ -2359,6 +2452,12 @@
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>130</v>
       </c>
@@ -2367,6 +2466,12 @@
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>132</v>
       </c>
@@ -2375,6 +2480,12 @@
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>134</v>
       </c>
@@ -2383,6 +2494,12 @@
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
@@ -2394,6 +2511,12 @@
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>139</v>
       </c>
@@ -2402,6 +2525,12 @@
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>141</v>
       </c>
@@ -2410,6 +2539,12 @@
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>143</v>
       </c>
@@ -2418,6 +2553,9 @@
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C48" s="1">
+        <v>8</v>
+      </c>
       <c r="D48" s="1">
         <v>100</v>
       </c>
@@ -2435,6 +2573,12 @@
       <c r="A49" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>100</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>149</v>
       </c>
@@ -2443,6 +2587,12 @@
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>151</v>
       </c>
@@ -2451,6 +2601,9 @@
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
       <c r="D51" s="1">
         <v>100</v>
       </c>
@@ -2462,6 +2615,12 @@
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>155</v>
       </c>
@@ -2503,6 +2662,12 @@
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>166</v>
       </c>
@@ -2511,6 +2676,12 @@
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>168</v>
       </c>
@@ -2519,6 +2690,12 @@
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>170</v>
       </c>
@@ -2527,6 +2704,12 @@
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>172</v>
       </c>
@@ -2535,6 +2718,12 @@
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>174</v>
       </c>
@@ -2543,6 +2732,12 @@
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="C61" s="1">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>176</v>
       </c>
@@ -2554,6 +2749,12 @@
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>179</v>
       </c>
@@ -2562,6 +2763,12 @@
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>181</v>
       </c>
@@ -2573,6 +2780,12 @@
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>100</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>184</v>
       </c>
@@ -2584,6 +2797,12 @@
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>187</v>
       </c>
@@ -2598,6 +2817,12 @@
       <c r="A66" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>100</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>191</v>
       </c>
@@ -2612,6 +2837,12 @@
       <c r="A67" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2623,6 +2854,12 @@
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>197</v>
       </c>
@@ -2631,6 +2868,12 @@
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>100</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>199</v>
       </c>
@@ -2642,6 +2885,12 @@
       <c r="A70" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>100</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>202</v>
       </c>
@@ -2652,6 +2901,12 @@
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>204</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>100</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>205</v>
@@ -2775,10 +3030,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -2830,9 +3085,6 @@
       <c r="A2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
@@ -2850,13 +3102,7 @@
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2865,7 +3111,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -2874,7 +3120,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -2887,30 +3133,27 @@
       <c r="F5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -2918,10 +3161,16 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2930,12 +3179,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>234</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2950,12 +3202,6 @@
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>238</v>
       </c>
@@ -2965,13 +3211,43 @@
         <v>239</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2985,8 +3261,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3031,7 +3307,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3040,18 +3316,18 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3069,13 +3345,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -3114,10 +3390,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Oxyde(-O)" sheetId="4" r:id="rId3"/>
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
     <sheet name="Others" sheetId="2" r:id="rId5"/>
+    <sheet name="Phenomenon" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="264">
   <si>
     <t>Structural</t>
   </si>
@@ -798,6 +799,18 @@
   </si>
   <si>
     <t>碳酸亚铁</t>
+  </si>
+  <si>
+    <t>FireFairy</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>火焰精灵</t>
+  </si>
+  <si>
+    <t>ファイアフェアリー</t>
   </si>
 </sst>
 </file>
@@ -805,8 +818,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -833,14 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -849,15 +854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,21 +868,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,6 +893,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +962,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,14 +977,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,25 +999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,19 +1035,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,13 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,19 +1125,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,67 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,22 +1208,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,21 +1256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1277,6 +1270,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1285,10 +1298,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,133 +1310,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,8 +1800,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3261,8 +3274,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3425,4 +3438,89 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>9999</v>
+      </c>
+      <c r="E2">
+        <v>9999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
     <sheet name="Others" sheetId="2" r:id="rId5"/>
     <sheet name="Phenomenon" sheetId="6" r:id="rId6"/>
+    <sheet name="Alloy" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="267">
   <si>
     <t>Structural</t>
   </si>
@@ -811,6 +812,15 @@
   </si>
   <si>
     <t>ファイアフェアリー</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>鋼</t>
   </si>
 </sst>
 </file>
@@ -818,10 +828,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -847,14 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +871,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,49 +946,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,6 +977,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -968,23 +992,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,7 +1009,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1099,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,91 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,67 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,17 +1218,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,6 +1238,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,15 +1292,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1298,145 +1308,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,7 +1811,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3274,8 +3284,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3523,4 +3533,89 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
   <si>
     <t>Structural</t>
   </si>
@@ -67,6 +67,12 @@
     <t>Hydrogen</t>
   </si>
   <si>
+    <t>最轻的气体，无色无味。常温常压下极易燃烧。</t>
+  </si>
+  <si>
+    <t>無色無臭の最も軽い気体。常温常圧では非常に燃えやすい。</t>
+  </si>
+  <si>
     <t>He</t>
   </si>
   <si>
@@ -136,6 +142,12 @@
     <t>酸素</t>
   </si>
   <si>
+    <t>高温时非常活泼的无色无味气体，绝大多数生命需要它。</t>
+  </si>
+  <si>
+    <t>高温で非常に活発になる無色無臭の気体、殆どの生命が必要とする。</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -163,6 +175,12 @@
     <t>ナトリウム</t>
   </si>
   <si>
+    <t>银白色立方体结构金属，质软而轻，化学性质非常活泼。</t>
+  </si>
+  <si>
+    <t>銀白色の立方体結晶金属、軽くて柔らかく、とても活発。</t>
+  </si>
+  <si>
     <t>Mg</t>
   </si>
   <si>
@@ -184,6 +202,12 @@
     <t>Aluminum</t>
   </si>
   <si>
+    <t>银白色活泼金属，其元素为地壳中含量最丰富的金属元素。与部分氧化金属会产生猛烈的反应。</t>
+  </si>
+  <si>
+    <t>銀白色の活発な金属、その元素は地殻で最も豊富に存在する金属元素。一部の金属酸化物と猛烈な反応を起こす。</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
@@ -304,6 +328,12 @@
     <t>Iron</t>
   </si>
   <si>
+    <t>柔韧而延展性较好的银白色金属，能与不同物质加工获得未知的力量。</t>
+  </si>
+  <si>
+    <t>柔軟な銀白色の金属。他の物質と加工すると、未知なる力を手に入れる。</t>
+  </si>
+  <si>
     <t>Co</t>
   </si>
   <si>
@@ -334,6 +364,12 @@
     <t>Copper</t>
   </si>
   <si>
+    <t>柔软，红橙色的金属，拥有良好的导电性与导热性。</t>
+  </si>
+  <si>
+    <t>柔らかい赤茶色の金属、高い導電性と熱伝導率を持つ。</t>
+  </si>
+  <si>
     <t>Zn</t>
   </si>
   <si>
@@ -703,6 +739,12 @@
     <t>氧化铁</t>
   </si>
   <si>
+    <t>铁被氧化后变成的深红色粉末，自然界中它以赤铁矿的成分存在。</t>
+  </si>
+  <si>
+    <t>鉄が酸化されて出来たもの、赤鉄鉱の成分として自然界に存在する。</t>
+  </si>
+  <si>
     <t>Fe3O4</t>
   </si>
   <si>
@@ -712,6 +754,12 @@
     <t>四酸化三鉄</t>
   </si>
   <si>
+    <t>具有磁性的黑色晶体，自然界中它以磁铁矿的成分存在。让钢铁表面形成它的保护膜可以增加抗腐蚀性。</t>
+  </si>
+  <si>
+    <t>磁性を持った黒色結晶、磁鉄鉱の成分として自然界に存在する。鋼鉄の表面にこの保護膜を形成することで酸化を防げる。</t>
+  </si>
+  <si>
     <t>CuO</t>
   </si>
   <si>
@@ -721,6 +769,12 @@
     <t>酸化銅</t>
   </si>
   <si>
+    <t>铜被氧化后变成的黑色粉末，用作玻璃、陶瓷工业的着色剂，也是制人造宝石的原料。</t>
+  </si>
+  <si>
+    <t>銅が酸化されて出来たもの、ガラスや陶器の染色に使われる他、人工ダイヤモンドの原料にもなる。</t>
+  </si>
+  <si>
     <t>MgO</t>
   </si>
   <si>
@@ -770,6 +824,12 @@
   </si>
   <si>
     <t>水酸化ナトリウム</t>
+  </si>
+  <si>
+    <t>不要碰！它的腐蚀性极强。从印染，纺织，冶金，到疏通管道，都是它的擅长工作。</t>
+  </si>
+  <si>
+    <t>触れないで！こいつは強腐蝕性。染色、纺织、冶金から、パイプ詰まりの解消まで、様々な場面に役立つ。</t>
   </si>
   <si>
     <t>Ca(OH)2</t>
@@ -828,10 +888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -857,12 +917,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -877,9 +968,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,66 +978,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,6 +993,36 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -986,7 +1046,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,7 +1054,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,7 +1069,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,109 +1225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,61 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,6 +1260,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1221,8 +1316,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,6 +1337,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1256,50 +1360,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1308,10 +1368,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,133 +1380,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1810,8 +1870,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1824,8 +1884,8 @@
     <col min="6" max="6" width="13.4537037037037" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="52" style="1" customWidth="1"/>
+    <col min="9" max="9" width="66.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7777777777778" style="1" customWidth="1"/>
     <col min="11" max="11" width="49.5555555555556" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1865,7 +1925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1881,27 +1941,33 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1910,15 +1976,15 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -1927,29 +1993,29 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1958,74 +2024,80 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -2034,15 +2106,21 @@
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -2051,15 +2129,15 @@
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2068,88 +2146,94 @@
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -2158,15 +2242,15 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -2175,15 +2259,15 @@
         <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2192,15 +2276,15 @@
         <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
@@ -2209,15 +2293,15 @@
         <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
@@ -2226,15 +2310,15 @@
         <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2243,15 +2327,15 @@
         <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2260,15 +2344,15 @@
         <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -2277,18 +2361,24 @@
         <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -2297,15 +2387,15 @@
         <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
@@ -2314,15 +2404,15 @@
         <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
@@ -2331,18 +2421,24 @@
         <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -2351,15 +2447,15 @@
         <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -2368,15 +2464,15 @@
         <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -2385,50 +2481,50 @@
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
@@ -2437,12 +2533,12 @@
         <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -2451,12 +2547,12 @@
         <v>100</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -2465,15 +2561,15 @@
         <v>100</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -2482,12 +2578,12 @@
         <v>100</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -2496,12 +2592,12 @@
         <v>100</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C43" s="1">
         <v>5</v>
@@ -2510,12 +2606,12 @@
         <v>100</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -2524,15 +2620,15 @@
         <v>100</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -2541,12 +2637,12 @@
         <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -2555,12 +2651,12 @@
         <v>100</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
@@ -2569,12 +2665,12 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1">
         <v>8</v>
@@ -2583,18 +2679,18 @@
         <v>100</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1">
         <v>5</v>
@@ -2603,12 +2699,12 @@
         <v>100</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
@@ -2617,12 +2713,12 @@
         <v>100</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1">
         <v>6</v>
@@ -2631,12 +2727,12 @@
         <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -2645,45 +2741,45 @@
         <v>100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -2692,12 +2788,12 @@
         <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -2706,12 +2802,12 @@
         <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -2720,12 +2816,12 @@
         <v>100</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
@@ -2734,12 +2830,12 @@
         <v>100</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1">
         <v>5</v>
@@ -2748,12 +2844,12 @@
         <v>100</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2762,15 +2858,15 @@
         <v>100</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C62" s="1">
         <v>5</v>
@@ -2779,12 +2875,12 @@
         <v>100</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
@@ -2793,15 +2889,15 @@
         <v>100</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C64" s="1">
         <v>5</v>
@@ -2810,15 +2906,15 @@
         <v>100</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
@@ -2827,18 +2923,18 @@
         <v>100</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -2847,18 +2943,18 @@
         <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -2867,15 +2963,15 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C68" s="1">
         <v>5</v>
@@ -2884,12 +2980,12 @@
         <v>100</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
@@ -2898,15 +2994,15 @@
         <v>100</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C70" s="1">
         <v>5</v>
@@ -2915,15 +3011,15 @@
         <v>100</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
@@ -2932,23 +3028,23 @@
         <v>100</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +3060,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
@@ -3013,34 +3109,34 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3055,8 +3151,8 @@
   <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -3066,7 +3162,10 @@
     <col min="3" max="5" width="8.88888888888889" style="1"/>
     <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="60.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="66.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3106,32 +3205,32 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -3140,12 +3239,12 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3154,12 +3253,18 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -3168,15 +3273,21 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>243</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3185,15 +3296,21 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3204,7 +3321,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -3215,23 +3332,23 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -3240,12 +3357,12 @@
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -3254,23 +3371,23 @@
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3284,13 +3401,16 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="71.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="98.9722222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3328,9 +3448,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3339,18 +3459,24 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>267</v>
+      </c>
+      <c r="I2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3413,34 +3539,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3504,10 +3630,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3519,13 +3645,13 @@
         <v>9999</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3666,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3589,10 +3715,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3604,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="289">
   <si>
     <t>Structural</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>无色透明的液体，一切生命的重要物质。能溶解很多物质。</t>
+  </si>
+  <si>
+    <t>無色透明の液体、全ての生命の重要物質。あらゆる物質を溶解する。</t>
   </si>
   <si>
     <t>H2O2</t>
@@ -888,10 +894,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -923,46 +929,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,32 +943,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,26 +958,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,6 +988,83 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1069,13 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,19 +1087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,84 +1129,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1207,13 +1141,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,25 +1207,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,6 +1266,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1286,80 +1366,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1368,10 +1374,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,133 +1386,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1870,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3151,8 +3157,8 @@
   <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -3203,7 +3209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
@@ -3219,18 +3225,24 @@
       <c r="H2" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -3239,12 +3251,12 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3253,18 +3265,18 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -3273,21 +3285,21 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -3296,21 +3308,21 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3321,7 +3333,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -3332,23 +3344,23 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -3357,12 +3369,12 @@
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -3371,23 +3383,23 @@
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3462,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3459,24 +3471,24 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3539,34 +3551,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3630,10 +3642,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3645,13 +3657,13 @@
         <v>9999</v>
       </c>
       <c r="F2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" t="s">
         <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3715,10 +3727,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3730,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" t="s">
         <v>286</v>
-      </c>
-      <c r="H2" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
     <sheet name="Hydrocarbon" sheetId="3" r:id="rId2"/>
     <sheet name="Oxyde(-O)" sheetId="4" r:id="rId3"/>
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
-    <sheet name="Others" sheetId="2" r:id="rId5"/>
+    <sheet name="Alloy" sheetId="7" r:id="rId5"/>
     <sheet name="Phenomenon" sheetId="6" r:id="rId6"/>
-    <sheet name="Alloy" sheetId="7" r:id="rId7"/>
+    <sheet name="Others" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="307">
   <si>
     <t>Structural</t>
   </si>
@@ -844,6 +844,81 @@
     <t>CaO2H2</t>
   </si>
   <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>FeC</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>鋼</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>CuSn</t>
+  </si>
+  <si>
+    <t>青铜</t>
+  </si>
+  <si>
+    <t>ブロンズ</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>CuZn</t>
+  </si>
+  <si>
+    <t>黄铜</t>
+  </si>
+  <si>
+    <t>ブラス</t>
+  </si>
+  <si>
+    <t>Paktong</t>
+  </si>
+  <si>
+    <t>CuNi</t>
+  </si>
+  <si>
+    <t>白铜</t>
+  </si>
+  <si>
+    <t>白銅</t>
+  </si>
+  <si>
+    <t>NickelSilver</t>
+  </si>
+  <si>
+    <t>CuZnNi</t>
+  </si>
+  <si>
+    <t>镍银</t>
+  </si>
+  <si>
+    <t>洋銀</t>
+  </si>
+  <si>
+    <t>Nickel silver</t>
+  </si>
+  <si>
+    <t>FireFairy</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>火焰精灵</t>
+  </si>
+  <si>
+    <t>ファイアフェアリー</t>
+  </si>
+  <si>
     <t>H2CO3</t>
   </si>
   <si>
@@ -866,27 +941,6 @@
   </si>
   <si>
     <t>碳酸亚铁</t>
-  </si>
-  <si>
-    <t>FireFairy</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>火焰精灵</t>
-  </si>
-  <si>
-    <t>ファイアフェアリー</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>钢</t>
-  </si>
-  <si>
-    <t>鋼</t>
   </si>
 </sst>
 </file>
@@ -894,8 +948,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -923,14 +977,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,40 +997,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,16 +1019,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,10 +1051,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1053,7 +1100,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,6 +1108,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,67 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1147,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,55 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,37 +1303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,6 +1320,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1280,6 +1343,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,59 +1405,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,10 +1428,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,133 +1440,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2421,7 +2475,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1">
         <v>100</v>
@@ -3157,8 +3211,8 @@
   <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -3506,13 +3560,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="14.2407407407407" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -3549,36 +3609,134 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>274</v>
       </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="G5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3642,10 +3800,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3657,13 +3815,13 @@
         <v>9999</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3676,19 +3834,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -3725,30 +3877,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" t="s">
-        <v>286</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
     <sheet name="Alloy" sheetId="7" r:id="rId5"/>
     <sheet name="Phenomenon" sheetId="6" r:id="rId6"/>
-    <sheet name="Others" sheetId="2" r:id="rId7"/>
+    <sheet name="NeedEdit" sheetId="8" r:id="rId7"/>
+    <sheet name="Others" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="380">
   <si>
     <t>Structural</t>
   </si>
@@ -917,6 +918,225 @@
   </si>
   <si>
     <t>ファイアフェアリー</t>
+  </si>
+  <si>
+    <t>Li2O</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Li3N</t>
+  </si>
+  <si>
+    <t>LiOH</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>K2O</t>
+  </si>
+  <si>
+    <t>K2O2</t>
+  </si>
+  <si>
+    <t>KO2</t>
+  </si>
+  <si>
+    <t>KOH</t>
+  </si>
+  <si>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>K2CO3</t>
+  </si>
+  <si>
+    <t>K2SO4</t>
+  </si>
+  <si>
+    <t>K2C2O4</t>
+  </si>
+  <si>
+    <t>CaSO4</t>
+  </si>
+  <si>
+    <t>CaC2O4</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>Ca(HCO3)2</t>
+  </si>
+  <si>
+    <t>CaH2C2O6</t>
+  </si>
+  <si>
+    <t>CaSO3</t>
+  </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>CaSiO3</t>
+  </si>
+  <si>
+    <t>FeCl3</t>
+  </si>
+  <si>
+    <t>FeS</t>
+  </si>
+  <si>
+    <t>FeCl2</t>
+  </si>
+  <si>
+    <t>CuSO4</t>
+  </si>
+  <si>
+    <t>FeSO4</t>
+  </si>
+  <si>
+    <t>Fe(OH)3</t>
+  </si>
+  <si>
+    <t>FeO3H3</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Fe(OH)2</t>
+  </si>
+  <si>
+    <t>FeO2H2</t>
+  </si>
+  <si>
+    <t>Na2SO4</t>
+  </si>
+  <si>
+    <t>CuCl2</t>
+  </si>
+  <si>
+    <t>CuS</t>
+  </si>
+  <si>
+    <t>Cu(OH)2</t>
+  </si>
+  <si>
+    <t>CuO2H2</t>
+  </si>
+  <si>
+    <t>Cu2S</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>CH3CH2OH</t>
+  </si>
+  <si>
+    <t>CH3CH2ONa</t>
+  </si>
+  <si>
+    <t>Na(OH)2</t>
+  </si>
+  <si>
+    <t>NaO2H2</t>
+  </si>
+  <si>
+    <t>Na2CO3</t>
+  </si>
+  <si>
+    <t>NaHCO3</t>
+  </si>
+  <si>
+    <t>AlCl3</t>
+  </si>
+  <si>
+    <t>Al2(SO4)3</t>
+  </si>
+  <si>
+    <t>Al2S3O12</t>
+  </si>
+  <si>
+    <t>NaAlO2</t>
+  </si>
+  <si>
+    <t>Al(OH)3</t>
+  </si>
+  <si>
+    <t>AlO3H3</t>
+  </si>
+  <si>
+    <t>NH3.H2O</t>
+  </si>
+  <si>
+    <t>NH3H2O</t>
+  </si>
+  <si>
+    <t>(NH4)2SO4</t>
+  </si>
+  <si>
+    <t>N2H8SO4</t>
+  </si>
+  <si>
+    <t>NaBr</t>
+  </si>
+  <si>
+    <t>Br2</t>
+  </si>
+  <si>
+    <t>NaI</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>NaClO</t>
+  </si>
+  <si>
+    <t>HClO</t>
+  </si>
+  <si>
+    <t>Ca(ClO)2</t>
+  </si>
+  <si>
+    <t>CaCl2O2</t>
+  </si>
+  <si>
+    <t>PCl3</t>
+  </si>
+  <si>
+    <t>PCl5</t>
+  </si>
+  <si>
+    <t>AgNO3</t>
+  </si>
+  <si>
+    <t>AgCl</t>
+  </si>
+  <si>
+    <t>HNO3</t>
+  </si>
+  <si>
+    <t>Na2SO3</t>
   </si>
   <si>
     <t>H2CO3</t>
@@ -948,10 +1168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -977,20 +1197,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1011,9 +1217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,9 +1248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,15 +1273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,22 +1291,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1100,14 +1312,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,13 +1349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1379,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,49 +1481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,55 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,19 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,9 +1545,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,28 +1584,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,17 +1620,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,10 +1648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,19 +1660,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1464,10 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,94 +1696,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3468,7 +3688,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3562,8 +3782,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -3834,10 +4054,411 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3879,34 +4500,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -1168,10 +1168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1197,7 +1197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,7 +1211,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,25 +1248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,13 +1272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1291,6 +1283,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1310,6 +1310,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1318,6 +1325,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1325,16 +1333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,13 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,37 +1385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,7 +1421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,7 +1463,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,73 +1523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,6 +1540,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1616,30 +1640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1648,145 +1648,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2150,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2298,7 +2298,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -2403,7 +2403,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
@@ -2420,7 +2420,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -2460,7 +2460,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>66</v>
@@ -2635,7 +2635,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
@@ -2953,7 +2953,7 @@
         <v>156</v>
       </c>
       <c r="C48" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>100</v>
@@ -3340,7 +3340,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
@@ -3783,7 +3783,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -3837,7 +3837,7 @@
         <v>275</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -3863,7 +3863,7 @@
         <v>279</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -3889,7 +3889,7 @@
         <v>283</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -3941,7 +3941,7 @@
         <v>291</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -4056,8 +4056,8 @@
   <sheetPr/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Hydrocarbon" sheetId="3" r:id="rId2"/>
     <sheet name="Oxyde(-O)" sheetId="4" r:id="rId3"/>
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
-    <sheet name="Alloy" sheetId="7" r:id="rId5"/>
-    <sheet name="Phenomenon" sheetId="6" r:id="rId6"/>
-    <sheet name="NeedEdit" sheetId="8" r:id="rId7"/>
-    <sheet name="Others" sheetId="2" r:id="rId8"/>
+    <sheet name="（-NOx)" sheetId="9" r:id="rId5"/>
+    <sheet name="Alloy" sheetId="7" r:id="rId6"/>
+    <sheet name="Phenomenon" sheetId="6" r:id="rId7"/>
+    <sheet name="NeedEdit" sheetId="8" r:id="rId8"/>
+    <sheet name="Others" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="384">
   <si>
     <t>Structural</t>
   </si>
@@ -29,6 +30,9 @@
     <t>Molecular</t>
   </si>
   <si>
+    <t>Echelon</t>
+  </si>
+  <si>
     <t>ATK</t>
   </si>
   <si>
@@ -125,7 +129,7 @@
     <t>Carbon</t>
   </si>
   <si>
-    <t>N</t>
+    <t>N2</t>
   </si>
   <si>
     <t>氮</t>
@@ -149,7 +153,7 @@
     <t>高温で非常に活発になる無色無臭の気体、殆どの生命が必要とする。</t>
   </si>
   <si>
-    <t>F</t>
+    <t>F2</t>
   </si>
   <si>
     <t>氟</t>
@@ -413,7 +417,7 @@
     <t>硒</t>
   </si>
   <si>
-    <t>Br</t>
+    <t>Br2</t>
   </si>
   <si>
     <t>溴</t>
@@ -536,7 +540,7 @@
     <t>テルル</t>
   </si>
   <si>
-    <t>I</t>
+    <t>I2</t>
   </si>
   <si>
     <t>碘</t>
@@ -845,6 +849,30 @@
     <t>CaO2H2</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>一氧化氮</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>二氧化氮</t>
+  </si>
+  <si>
+    <t>HNO3</t>
+  </si>
+  <si>
+    <t>硝酸</t>
+  </si>
+  <si>
+    <t>KNO3</t>
+  </si>
+  <si>
+    <t>硝酸钾</t>
+  </si>
+  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -923,18 +951,12 @@
     <t>Li2O</t>
   </si>
   <si>
-    <t>N2</t>
-  </si>
-  <si>
     <t>Li3N</t>
   </si>
   <si>
     <t>LiOH</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>HF</t>
   </si>
   <si>
@@ -1100,15 +1122,9 @@
     <t>NaBr</t>
   </si>
   <si>
-    <t>Br2</t>
-  </si>
-  <si>
     <t>NaI</t>
   </si>
   <si>
-    <t>I2</t>
-  </si>
-  <si>
     <t>NaClO</t>
   </si>
   <si>
@@ -1131,9 +1147,6 @@
   </si>
   <si>
     <t>AgCl</t>
-  </si>
-  <si>
-    <t>HNO3</t>
   </si>
   <si>
     <t>Na2SO3</t>
@@ -1168,10 +1181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1196,6 +1209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1204,22 +1225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,9 +1246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,18 +1260,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1303,15 +1316,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,7 +1325,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1340,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,25 +1362,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,13 +1410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,31 +1464,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,85 +1524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,37 +1556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,6 +1582,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,7 +1614,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,23 +1637,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,10 +1661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1660,19 +1673,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1681,10 +1694,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1699,94 +1712,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2148,29 +2161,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4537037037037" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="66.2222222222222" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.7777777777778" style="1" customWidth="1"/>
-    <col min="11" max="11" width="49.5555555555556" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4537037037037" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="66.2222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="63.7777777777778" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,16 +2218,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -2227,16 +2244,19 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -2244,67 +2264,82 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
+      <c r="E4" s="1">
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+      <c r="E5" s="1">
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
+      <c r="E7" s="1">
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2312,121 +2347,142 @@
       <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
+      <c r="E12" s="1">
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
+      <c r="E13" s="1">
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
+      <c r="E14" s="1">
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>58</v>
@@ -2440,208 +2496,256 @@
       <c r="J14" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="K14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>63</v>
+      <c r="E15" s="1">
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
+      <c r="E16" s="1">
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
+      <c r="E20" s="1">
+        <v>100</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>7</v>
       </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
+      <c r="E21" s="1">
+        <v>100</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>84</v>
+      <c r="E22" s="1">
+        <v>100</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>87</v>
+      <c r="E23" s="1">
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>8</v>
       </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
+      <c r="E24" s="1">
+        <v>100</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>93</v>
+      <c r="E25" s="1">
+        <v>100</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
-        <v>100</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>96</v>
+      <c r="E26" s="1">
+        <v>100</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="H26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>8</v>
       </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>99</v>
+      <c r="E27" s="1">
+        <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>100</v>
@@ -2655,53 +2759,62 @@
       <c r="J27" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="K27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>6</v>
       </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>105</v>
+      <c r="E28" s="1">
+        <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>7</v>
       </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>108</v>
+      <c r="E29" s="1">
+        <v>100</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>111</v>
+      <c r="E30" s="1">
+        <v>100</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>112</v>
@@ -2715,251 +2828,305 @@
       <c r="J30" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="K30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>117</v>
+      <c r="E31" s="1">
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>120</v>
+      <c r="E32" s="1">
+        <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>5</v>
       </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>123</v>
+      <c r="E33" s="1">
+        <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="D38" s="1">
-        <v>100</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="D39" s="1">
-        <v>100</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
-        <v>100</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>139</v>
+      <c r="E40" s="1">
+        <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="1">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>5</v>
       </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
         <v>5</v>
       </c>
-      <c r="D43" s="1">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="1">
-        <v>100</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>148</v>
+      <c r="E44" s="1">
+        <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="1">
-        <v>100</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>5</v>
       </c>
-      <c r="D46" s="1">
-        <v>100</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>5</v>
       </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>6</v>
       </c>
-      <c r="D48" s="1">
-        <v>100</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>157</v>
+      <c r="E48" s="1">
+        <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>158</v>
@@ -2967,243 +3134,294 @@
       <c r="H48" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="I48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>5</v>
       </c>
-      <c r="D49" s="1">
-        <v>100</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="1">
-        <v>100</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="1">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
         <v>6</v>
       </c>
-      <c r="D51" s="1">
-        <v>100</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>5</v>
       </c>
-      <c r="D52" s="1">
-        <v>100</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="E52" s="1">
+        <v>100</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="1" t="s">
         <v>172</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="1" t="s">
         <v>175</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="D56" s="1">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" s="1">
+        <v>100</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
         <v>5</v>
       </c>
-      <c r="D57" s="1">
-        <v>100</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" s="1">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="1">
-        <v>100</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="E58" s="1">
+        <v>100</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="D59" s="1">
-        <v>100</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" s="1">
+        <v>100</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="D60" s="1">
-        <v>100</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="E60" s="1">
+        <v>100</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
         <v>9</v>
       </c>
-      <c r="D61" s="1">
-        <v>100</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>188</v>
+      <c r="E61" s="1">
+        <v>100</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="D62" s="1">
-        <v>100</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="E62" s="1">
+        <v>100</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="D63" s="1">
-        <v>100</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>193</v>
+      <c r="E63" s="1">
+        <v>100</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="D64" s="1">
-        <v>100</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>196</v>
+      <c r="E64" s="1">
+        <v>100</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
         <v>5</v>
       </c>
-      <c r="D65" s="1">
-        <v>100</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>199</v>
+      <c r="E65" s="1">
+        <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>200</v>
@@ -3211,120 +3429,147 @@
       <c r="H65" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
         <v>4</v>
       </c>
-      <c r="D66" s="1">
-        <v>100</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>203</v>
+      <c r="E66" s="1">
+        <v>100</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>206</v>
+      <c r="E67" s="1">
+        <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="D68" s="1">
-        <v>100</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="E68" s="1">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
         <v>4</v>
       </c>
-      <c r="D69" s="1">
-        <v>100</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>211</v>
+      <c r="E69" s="1">
+        <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
         <v>5</v>
       </c>
-      <c r="D70" s="1">
-        <v>100</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>214</v>
+      <c r="E70" s="1">
+        <v>100</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="D71" s="1">
-        <v>100</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="E71" s="1">
+        <v>100</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F73" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3337,22 +3582,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3386,37 +3632,52 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3429,26 +3690,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88888888888889" style="1"/>
-    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88888888888889" style="1"/>
-    <col min="9" max="9" width="60.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="66.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="1"/>
+    <col min="10" max="10" width="60.8888888888889" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,19 +3744,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="1">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>232</v>
@@ -3505,175 +3770,217 @@
       <c r="J2" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="K2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>241</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>246</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>249</v>
+      <c r="E7" s="1">
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="K7" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="1" t="s">
         <v>266</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3685,21 +3992,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="71.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="98.9722222222222" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="71.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="98.9722222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3733,41 +4041,50 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2">
+        <v>268</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>268</v>
+      <c r="E2">
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>269</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>270</v>
       </c>
       <c r="J2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="K2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
@@ -3780,21 +4097,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="14.2407407407407" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3828,135 +4147,52 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3969,21 +4205,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.2407407407407" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4017,31 +4254,153 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>296</v>
       </c>
-      <c r="C2">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>9999</v>
-      </c>
-      <c r="E2">
-        <v>9999</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G5" t="s">
         <v>297</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H5" t="s">
         <v>298</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I5" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4054,18 +4413,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4099,350 +4462,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>9999</v>
+      </c>
+      <c r="F2">
+        <v>9999</v>
+      </c>
+      <c r="G2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="H2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>337</v>
-      </c>
-      <c r="B37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>344</v>
-      </c>
-      <c r="B43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>349</v>
-      </c>
-      <c r="B47" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>352</v>
-      </c>
-      <c r="B49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>354</v>
-      </c>
-      <c r="B50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>356</v>
-      </c>
-      <c r="B51" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>364</v>
-      </c>
-      <c r="B58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>371</v>
+      <c r="I2" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4455,15 +4502,398 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4497,37 +4927,40 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>376</v>
+      </c>
+      <c r="G2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="G5" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="389">
   <si>
     <t>Structural</t>
   </si>
@@ -828,6 +828,18 @@
     <t>三氧化硫</t>
   </si>
   <si>
+    <t>Na2O</t>
+  </si>
+  <si>
+    <t>氧化纳</t>
+  </si>
+  <si>
+    <t>Na2O2</t>
+  </si>
+  <si>
+    <t>过氧化钠</t>
+  </si>
+  <si>
     <t>NaOH</t>
   </si>
   <si>
@@ -1105,6 +1117,9 @@
   </si>
   <si>
     <t>AlO3H3</t>
+  </si>
+  <si>
+    <t>NH3</t>
   </si>
   <si>
     <t>NH3.H2O</t>
@@ -1181,9 +1196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1209,16 +1224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,6 +1245,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1247,24 +1293,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1278,53 +1333,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1332,7 +1340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,6 +1349,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,6 +1377,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1369,6 +1420,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,163 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,6 +1568,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1571,41 +1616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,15 +1651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1653,6 +1659,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1661,10 +1676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1673,133 +1688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,8 +2178,8 @@
   <sheetPr/>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3690,10 +3705,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -3981,6 +3996,28 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4047,7 +4084,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -4059,24 +4096,24 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4153,46 +4190,46 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4260,10 +4297,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -4278,21 +4315,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -4307,21 +4344,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -4336,21 +4373,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -4365,21 +4402,21 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -4394,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4468,10 +4505,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4483,13 +4520,13 @@
         <v>9999</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4502,10 +4539,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4554,322 +4591,327 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>369</v>
-      </c>
-      <c r="B54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="B55" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>375</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4933,34 +4975,34 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
